--- a/target/classes/com/qa/hubspot/testdata/HubSpotTestData.xlsx
+++ b/target/classes/com/qa/hubspot/testdata/HubSpotTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bobit/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bobit/Documents/workspace/TestNGPOM/src/main/java/com/qa/hubspot/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6027C18-35AE-2049-8C8A-5567158E97DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9859ED6-846A-C145-973F-3351E83A2E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{5E55A73F-935F-2347-A23B-4E6EA0DF9088}"/>
+    <workbookView xWindow="3240" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{5E55A73F-935F-2347-A23B-4E6EA0DF9088}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>email</t>
   </si>
@@ -47,40 +47,16 @@
     <t>jobtitle</t>
   </si>
   <si>
-    <t>sefika@yahoo.com</t>
-  </si>
-  <si>
-    <t>Sefika</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
-    <t>aynur@gmail.com</t>
-  </si>
-  <si>
-    <t>Aynur</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>henry@gmail.com</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>Manager</t>
+    <t>ahsen@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahsen</t>
+  </si>
+  <si>
+    <t>T9</t>
   </si>
 </sst>
 </file>
@@ -96,9 +72,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,16 +95,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB7A7DF-349F-6545-90CC-214A917537BA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,52 +439,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BFE865D2-F826-0546-9ACB-F0A86EA842AA}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{EDB72BCF-D420-4A49-A88A-0E3AB351810E}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{F922158B-343F-364B-863A-86DE913276F6}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>